--- a/EFI/CODE/output/FMP/AllStocksStyle_20200930.xlsx
+++ b/EFI/CODE/output/FMP/AllStocksStyle_20200930.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="605">
   <si>
     <t>sedol</t>
   </si>
@@ -1848,7 +1848,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1858,14 +1858,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1886,24 +1890,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1920,7 +1924,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1937,7 +1941,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1954,7 +1958,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1971,7 +1975,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1988,7 +1992,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2005,7 +2009,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2022,7 +2026,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -2039,7 +2043,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -2056,7 +2060,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -2073,7 +2077,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2090,7 +2094,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2107,7 +2111,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2124,7 +2128,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2141,7 +2145,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2158,7 +2162,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2175,7 +2179,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2192,7 +2196,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2209,7 +2213,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2226,7 +2230,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2243,7 +2247,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -2260,7 +2264,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -2277,7 +2281,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -2294,7 +2298,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -2311,7 +2315,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -2328,7 +2332,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -2345,7 +2349,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2362,7 +2366,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2379,7 +2383,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2396,7 +2400,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -2413,7 +2417,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -2430,7 +2434,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -2447,7 +2451,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -2464,7 +2468,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -2481,7 +2485,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -2498,7 +2502,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -2515,7 +2519,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -2532,7 +2536,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -2549,7 +2553,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -2566,7 +2570,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -2583,7 +2587,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -2600,7 +2604,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -2617,7 +2621,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -2634,7 +2638,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -2651,7 +2655,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -2668,7 +2672,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -2685,7 +2689,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -2702,7 +2706,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -2719,7 +2723,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -2736,7 +2740,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -2753,7 +2757,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -2770,7 +2774,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -2787,7 +2791,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -2804,7 +2808,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -2821,7 +2825,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -2838,7 +2842,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2855,7 +2859,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2872,7 +2876,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2889,7 +2893,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2906,7 +2910,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2923,7 +2927,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -2940,7 +2944,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -2957,7 +2961,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2974,7 +2978,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -2991,7 +2995,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -3008,7 +3012,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -3025,7 +3029,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -3042,7 +3046,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -3059,7 +3063,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -3076,7 +3080,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -3093,7 +3097,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -3110,7 +3114,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -3127,7 +3131,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -3144,7 +3148,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -3161,7 +3165,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -3178,7 +3182,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -3195,7 +3199,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -3212,7 +3216,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -3229,7 +3233,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -3246,7 +3250,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -3263,7 +3267,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -3280,7 +3284,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -3297,7 +3301,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -3314,7 +3318,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -3331,7 +3335,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -3348,7 +3352,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -3365,7 +3369,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -3382,7 +3386,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -3399,7 +3403,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -3416,7 +3420,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -3433,7 +3437,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -3450,7 +3454,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -3467,7 +3471,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -3484,7 +3488,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -3501,7 +3505,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -3518,7 +3522,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -3535,7 +3539,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -3552,7 +3556,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -3569,7 +3573,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -3586,7 +3590,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -3603,7 +3607,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -3620,7 +3624,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -3637,7 +3641,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -3654,7 +3658,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -3671,7 +3675,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -3688,7 +3692,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -3705,7 +3709,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -3722,7 +3726,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -3739,7 +3743,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -3756,7 +3760,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -3773,7 +3777,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -3790,7 +3794,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -3807,7 +3811,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -3824,7 +3828,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -3841,7 +3845,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -3858,7 +3862,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -3875,7 +3879,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -3892,7 +3896,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -3909,7 +3913,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -3926,7 +3930,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -3943,7 +3947,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -3960,7 +3964,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -3977,7 +3981,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -3994,7 +3998,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -4011,7 +4015,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -4028,7 +4032,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -4045,7 +4049,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -4062,7 +4066,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -4079,7 +4083,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -4096,7 +4100,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -4113,7 +4117,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -4130,7 +4134,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -4147,7 +4151,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -4164,7 +4168,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -4181,7 +4185,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -4198,7 +4202,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -4215,7 +4219,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -4232,7 +4236,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -4249,7 +4253,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -4266,7 +4270,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -4283,7 +4287,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -4300,7 +4304,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -4317,7 +4321,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -4334,7 +4338,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -4351,7 +4355,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -4368,7 +4372,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -4385,7 +4389,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -4402,7 +4406,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -4419,7 +4423,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -4436,7 +4440,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -4453,7 +4457,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -4470,7 +4474,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -4487,7 +4491,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -4504,7 +4508,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -4521,7 +4525,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -4538,7 +4542,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -4555,7 +4559,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -4572,7 +4576,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -4589,7 +4593,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -4606,7 +4610,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -4623,7 +4627,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -4640,7 +4644,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -4657,7 +4661,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -4674,7 +4678,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -4691,7 +4695,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -4708,7 +4712,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -4725,7 +4729,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -4742,7 +4746,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -4759,7 +4763,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -4776,7 +4780,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -4793,7 +4797,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -4810,7 +4814,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -4827,7 +4831,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -4844,7 +4848,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -4861,7 +4865,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -4878,7 +4882,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -4895,7 +4899,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -4912,7 +4916,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -4929,7 +4933,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -4946,7 +4950,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -4963,7 +4967,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -4980,7 +4984,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -4997,7 +5001,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -5014,7 +5018,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -5031,7 +5035,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -5048,7 +5052,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -5065,7 +5069,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -5082,7 +5086,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -5099,7 +5103,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -5116,7 +5120,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -5133,7 +5137,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -5150,7 +5154,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -5167,7 +5171,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -5184,7 +5188,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -5201,7 +5205,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -5218,7 +5222,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -5235,7 +5239,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -5252,7 +5256,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -5269,7 +5273,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -5286,7 +5290,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -5303,7 +5307,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -5320,7 +5324,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -5337,7 +5341,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -5354,7 +5358,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -5371,7 +5375,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -5388,7 +5392,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -5405,7 +5409,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -5422,7 +5426,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -5439,7 +5443,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -5456,7 +5460,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -5473,7 +5477,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -5490,7 +5494,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B213">
@@ -5507,7 +5511,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B214">
@@ -5524,7 +5528,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B215">
@@ -5541,7 +5545,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B216">
@@ -5558,7 +5562,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B217">
@@ -5575,7 +5579,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B218">
@@ -5592,7 +5596,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B219">
@@ -5609,7 +5613,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B220">
@@ -5626,7 +5630,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B221">
@@ -5643,7 +5647,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B222">
@@ -5660,7 +5664,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B223">
@@ -5677,7 +5681,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B224">
@@ -5694,7 +5698,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B225">
@@ -5711,7 +5715,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B226">
@@ -5728,7 +5732,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B227">
@@ -5745,7 +5749,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B228">
@@ -5762,7 +5766,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B229">
@@ -5779,7 +5783,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B230">
@@ -5796,7 +5800,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B231">
@@ -5813,7 +5817,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B232">
@@ -5830,7 +5834,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B233">
@@ -5847,7 +5851,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B234">
@@ -5864,7 +5868,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B235">
@@ -5881,7 +5885,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B236">
@@ -5898,7 +5902,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B237">
@@ -5915,7 +5919,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B238">
@@ -5932,7 +5936,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B239">
@@ -5949,7 +5953,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B240">
@@ -5966,7 +5970,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B241">
@@ -5983,7 +5987,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B242">
@@ -6000,7 +6004,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B243">
@@ -6017,7 +6021,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B244">
@@ -6034,7 +6038,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B245">
@@ -6051,7 +6055,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B246">
@@ -6068,7 +6072,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B247">
@@ -6085,7 +6089,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B248">
@@ -6102,7 +6106,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B249">
@@ -6119,7 +6123,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B250">
@@ -6136,7 +6140,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B251">
@@ -6153,7 +6157,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B252">
@@ -6170,7 +6174,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B253">
@@ -6187,7 +6191,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B254">
@@ -6204,7 +6208,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B255">
@@ -6221,7 +6225,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B256">
@@ -6238,7 +6242,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B257">
@@ -6255,7 +6259,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B258">
@@ -6272,7 +6276,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B259">
@@ -6289,7 +6293,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B260">
@@ -6306,7 +6310,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B261">
@@ -6323,7 +6327,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B262">
@@ -6340,7 +6344,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B263">
@@ -6357,7 +6361,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B264">
@@ -6374,7 +6378,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B265">
@@ -6391,7 +6395,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B266">
@@ -6408,7 +6412,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B267">
@@ -6425,7 +6429,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B268">
@@ -6442,7 +6446,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B269">
@@ -6459,7 +6463,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B270">
@@ -6476,7 +6480,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B271">
@@ -6493,7 +6497,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B272">
@@ -6510,7 +6514,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B273">
@@ -6527,7 +6531,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B274">
@@ -6544,7 +6548,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B275">
@@ -6561,7 +6565,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B276">
@@ -6578,7 +6582,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B277">
@@ -6595,7 +6599,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B278">
@@ -6612,7 +6616,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B279">
@@ -6629,7 +6633,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B280">
@@ -6646,7 +6650,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B281">
@@ -6663,7 +6667,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B282">
@@ -6680,7 +6684,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B283">
@@ -6697,7 +6701,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B284">
@@ -6714,7 +6718,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B285">
@@ -6731,7 +6735,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B286">
@@ -6748,7 +6752,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B287">
@@ -6765,7 +6769,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B288">
@@ -6782,7 +6786,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B289">
@@ -6799,7 +6803,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B290">
@@ -6816,7 +6820,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B291">
@@ -6833,7 +6837,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B292">
@@ -6850,7 +6854,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B293">
@@ -6867,7 +6871,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B294">
@@ -6884,7 +6888,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B295">
@@ -6901,7 +6905,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B296">
@@ -6918,7 +6922,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B297">
@@ -6935,7 +6939,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B298">
@@ -6952,7 +6956,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B299">
@@ -6969,7 +6973,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B300">
@@ -6986,7 +6990,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B301">
@@ -7003,7 +7007,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="3" t="s">
         <v>301</v>
       </c>
       <c r="B302">
@@ -7020,7 +7024,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B303">
@@ -7037,7 +7041,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B304">
@@ -7054,7 +7058,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B305">
@@ -7071,7 +7075,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B306">
@@ -7088,7 +7092,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B307">
@@ -7105,7 +7109,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B308">
@@ -7122,7 +7126,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B309">
@@ -7139,7 +7143,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B310">
@@ -7156,7 +7160,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B311">
@@ -7173,7 +7177,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B312">
@@ -7190,7 +7194,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="s">
+      <c r="A313" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B313">
@@ -7207,7 +7211,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="3" t="s">
         <v>313</v>
       </c>
       <c r="B314">
@@ -7224,7 +7228,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B315">
@@ -7241,7 +7245,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B316">
@@ -7258,7 +7262,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B317">
@@ -7275,7 +7279,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B318">
@@ -7292,7 +7296,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B319">
@@ -7309,7 +7313,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B320">
@@ -7326,7 +7330,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B321">
@@ -7343,7 +7347,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B322">
@@ -7360,7 +7364,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B323">
@@ -7377,7 +7381,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B324">
@@ -7394,7 +7398,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B325">
@@ -7411,7 +7415,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="s">
+      <c r="A326" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B326">
@@ -7428,7 +7432,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="s">
+      <c r="A327" s="3" t="s">
         <v>326</v>
       </c>
       <c r="B327">
@@ -7445,7 +7449,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="s">
+      <c r="A328" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B328">
@@ -7462,7 +7466,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B329">
@@ -7479,7 +7483,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B330">
@@ -7496,7 +7500,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="s">
+      <c r="A331" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B331">
@@ -7513,7 +7517,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="1" t="s">
+      <c r="A332" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B332">
@@ -7530,7 +7534,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="1" t="s">
+      <c r="A333" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B333">
@@ -7547,7 +7551,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B334">
@@ -7564,7 +7568,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="1" t="s">
+      <c r="A335" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B335">
@@ -7581,7 +7585,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B336">
@@ -7598,7 +7602,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B337">
@@ -7615,7 +7619,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B338">
@@ -7632,7 +7636,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B339">
@@ -7649,7 +7653,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B340">
@@ -7666,7 +7670,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B341">
@@ -7683,7 +7687,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B342">
@@ -7700,7 +7704,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B343">
@@ -7717,7 +7721,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B344">
@@ -7734,7 +7738,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B345">
@@ -7751,7 +7755,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B346">
@@ -7768,7 +7772,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B347">
@@ -7785,7 +7789,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B348">
@@ -7802,7 +7806,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B349">
@@ -7819,7 +7823,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B350">
@@ -7836,7 +7840,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="1" t="s">
+      <c r="A351" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B351">
@@ -7853,7 +7857,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B352">
@@ -7870,7 +7874,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B353">
@@ -7887,7 +7891,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B354">
@@ -7904,7 +7908,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="3" t="s">
         <v>354</v>
       </c>
       <c r="B355">
@@ -7921,7 +7925,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="3" t="s">
         <v>355</v>
       </c>
       <c r="B356">
@@ -7938,7 +7942,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="3" t="s">
         <v>356</v>
       </c>
       <c r="B357">
@@ -7955,7 +7959,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B358">
@@ -7972,7 +7976,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="3" t="s">
         <v>358</v>
       </c>
       <c r="B359">
@@ -7989,7 +7993,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B360">
@@ -8006,7 +8010,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="3" t="s">
         <v>360</v>
       </c>
       <c r="B361">
@@ -8023,7 +8027,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="3" t="s">
         <v>361</v>
       </c>
       <c r="B362">
@@ -8040,7 +8044,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="1" t="s">
+      <c r="A363" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B363">
@@ -8057,7 +8061,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="3" t="s">
         <v>363</v>
       </c>
       <c r="B364">
@@ -8074,7 +8078,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="3" t="s">
         <v>364</v>
       </c>
       <c r="B365">
@@ -8091,7 +8095,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B366">
@@ -8108,7 +8112,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="3" t="s">
         <v>366</v>
       </c>
       <c r="B367">
@@ -8125,7 +8129,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B368">
@@ -8142,7 +8146,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="1" t="s">
+      <c r="A369" s="3" t="s">
         <v>368</v>
       </c>
       <c r="B369">
@@ -8159,7 +8163,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B370">
@@ -8176,7 +8180,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="3" t="s">
         <v>370</v>
       </c>
       <c r="B371">
@@ -8193,7 +8197,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="3" t="s">
         <v>371</v>
       </c>
       <c r="B372">
@@ -8210,7 +8214,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="3" t="s">
         <v>372</v>
       </c>
       <c r="B373">
@@ -8227,7 +8231,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B374">
@@ -8244,7 +8248,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="3" t="s">
         <v>374</v>
       </c>
       <c r="B375">
@@ -8261,7 +8265,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B376">
@@ -8278,7 +8282,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="3" t="s">
         <v>376</v>
       </c>
       <c r="B377">
@@ -8295,7 +8299,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B378">
@@ -8312,7 +8316,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="3" t="s">
         <v>378</v>
       </c>
       <c r="B379">
@@ -8329,7 +8333,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="3" t="s">
         <v>379</v>
       </c>
       <c r="B380">
@@ -8346,7 +8350,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="3" t="s">
         <v>380</v>
       </c>
       <c r="B381">
@@ -8363,7 +8367,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B382">
@@ -8380,7 +8384,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="3" t="s">
         <v>382</v>
       </c>
       <c r="B383">
@@ -8397,7 +8401,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B384">
@@ -8414,7 +8418,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="3" t="s">
         <v>384</v>
       </c>
       <c r="B385">
@@ -8431,7 +8435,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B386">
@@ -8448,7 +8452,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="3" t="s">
         <v>386</v>
       </c>
       <c r="B387">
@@ -8465,7 +8469,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B388">
@@ -8482,7 +8486,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="1" t="s">
+      <c r="A389" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B389">
@@ -8499,7 +8503,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B390">
@@ -8516,7 +8520,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="1" t="s">
+      <c r="A391" s="3" t="s">
         <v>390</v>
       </c>
       <c r="B391">
@@ -8533,7 +8537,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B392">
@@ -8550,7 +8554,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="3" t="s">
         <v>392</v>
       </c>
       <c r="B393">
@@ -8567,7 +8571,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B394">
@@ -8584,7 +8588,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="1" t="s">
+      <c r="A395" s="3" t="s">
         <v>394</v>
       </c>
       <c r="B395">
@@ -8601,7 +8605,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B396">
@@ -8618,7 +8622,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="1" t="s">
+      <c r="A397" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B397">
@@ -8635,7 +8639,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B398">
@@ -8652,7 +8656,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B399">
@@ -8669,7 +8673,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B400">
@@ -8686,7 +8690,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="3" t="s">
         <v>400</v>
       </c>
       <c r="B401">
@@ -8703,7 +8707,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B402">
@@ -8720,7 +8724,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B403">
@@ -8737,7 +8741,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B404">
@@ -8754,7 +8758,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="1" t="s">
+      <c r="A405" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B405">
@@ -8771,7 +8775,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B406">
@@ -8788,7 +8792,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="1" t="s">
+      <c r="A407" s="3" t="s">
         <v>406</v>
       </c>
       <c r="B407">
@@ -8805,7 +8809,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B408">
@@ -8822,7 +8826,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B409">
@@ -8839,7 +8843,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B410">
@@ -8856,7 +8860,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B411">
@@ -8873,7 +8877,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B412">
@@ -8890,7 +8894,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="3" t="s">
         <v>412</v>
       </c>
       <c r="B413">
@@ -8907,7 +8911,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="3" t="s">
         <v>413</v>
       </c>
       <c r="B414">
@@ -8924,7 +8928,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="1" t="s">
+      <c r="A415" s="3" t="s">
         <v>414</v>
       </c>
       <c r="B415">
@@ -8941,7 +8945,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B416">
@@ -8958,7 +8962,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B417">
@@ -8975,7 +8979,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B418">
@@ -8992,7 +8996,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="1" t="s">
+      <c r="A419" s="3" t="s">
         <v>418</v>
       </c>
       <c r="B419">
@@ -9009,7 +9013,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B420">
@@ -9026,7 +9030,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="3" t="s">
         <v>420</v>
       </c>
       <c r="B421">
@@ -9043,7 +9047,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B422">
@@ -9060,7 +9064,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B423">
@@ -9077,7 +9081,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="1" t="s">
+      <c r="A424" s="3" t="s">
         <v>423</v>
       </c>
       <c r="B424">
@@ -9094,7 +9098,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="1" t="s">
+      <c r="A425" s="3" t="s">
         <v>424</v>
       </c>
       <c r="B425">
@@ -9111,7 +9115,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B426">
@@ -9128,7 +9132,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="3" t="s">
         <v>426</v>
       </c>
       <c r="B427">
@@ -9145,7 +9149,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="3" t="s">
         <v>427</v>
       </c>
       <c r="B428">
@@ -9162,7 +9166,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="3" t="s">
         <v>428</v>
       </c>
       <c r="B429">
@@ -9179,7 +9183,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B430">
@@ -9196,7 +9200,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B431">
@@ -9213,7 +9217,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="3" t="s">
         <v>431</v>
       </c>
       <c r="B432">
@@ -9230,7 +9234,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="3" t="s">
         <v>432</v>
       </c>
       <c r="B433">
@@ -9247,7 +9251,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="3" t="s">
         <v>433</v>
       </c>
       <c r="B434">
@@ -9264,7 +9268,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="1" t="s">
+      <c r="A435" s="3" t="s">
         <v>434</v>
       </c>
       <c r="B435">
@@ -9281,7 +9285,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B436">
@@ -9298,7 +9302,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B437">
@@ -9315,7 +9319,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B438">
@@ -9332,7 +9336,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="1" t="s">
+      <c r="A439" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B439">
@@ -9349,7 +9353,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="1" t="s">
+      <c r="A440" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B440">
@@ -9366,7 +9370,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B441">
@@ -9383,7 +9387,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B442">
@@ -9400,7 +9404,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="1" t="s">
+      <c r="A443" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B443">
@@ -9417,7 +9421,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="1" t="s">
+      <c r="A444" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B444">
@@ -9434,7 +9438,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="1" t="s">
+      <c r="A445" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B445">
@@ -9451,7 +9455,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="1" t="s">
+      <c r="A446" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B446">
@@ -9468,7 +9472,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="1" t="s">
+      <c r="A447" s="3" t="s">
         <v>446</v>
       </c>
       <c r="B447">
@@ -9485,7 +9489,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="1" t="s">
+      <c r="A448" s="3" t="s">
         <v>447</v>
       </c>
       <c r="B448">
@@ -9502,7 +9506,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="1" t="s">
+      <c r="A449" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B449">
@@ -9519,7 +9523,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="1" t="s">
+      <c r="A450" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B450">
@@ -9536,7 +9540,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="1" t="s">
+      <c r="A451" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B451">
@@ -9553,7 +9557,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="1" t="s">
+      <c r="A452" s="3" t="s">
         <v>451</v>
       </c>
       <c r="B452">
@@ -9570,7 +9574,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="1" t="s">
+      <c r="A453" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B453">
@@ -9587,7 +9591,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="3" t="s">
         <v>453</v>
       </c>
       <c r="B454">
@@ -9604,7 +9608,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B455">
@@ -9621,7 +9625,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B456">
@@ -9638,7 +9642,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="1" t="s">
+      <c r="A457" s="3" t="s">
         <v>456</v>
       </c>
       <c r="B457">
@@ -9655,7 +9659,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="1" t="s">
+      <c r="A458" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B458">
@@ -9672,7 +9676,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="1" t="s">
+      <c r="A459" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B459">
@@ -9689,7 +9693,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="1" t="s">
+      <c r="A460" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B460">
@@ -9706,7 +9710,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="3" t="s">
         <v>460</v>
       </c>
       <c r="B461">
@@ -9723,7 +9727,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="3" t="s">
         <v>461</v>
       </c>
       <c r="B462">
@@ -9740,7 +9744,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="1" t="s">
+      <c r="A463" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B463">
@@ -9757,7 +9761,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="1" t="s">
+      <c r="A464" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B464">
@@ -9774,7 +9778,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="1" t="s">
+      <c r="A465" s="3" t="s">
         <v>464</v>
       </c>
       <c r="B465">
@@ -9791,7 +9795,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="1" t="s">
+      <c r="A466" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B466">
@@ -9808,7 +9812,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="1" t="s">
+      <c r="A467" s="3" t="s">
         <v>466</v>
       </c>
       <c r="B467">
@@ -9825,7 +9829,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="1" t="s">
+      <c r="A468" s="3" t="s">
         <v>467</v>
       </c>
       <c r="B468">
@@ -9842,7 +9846,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="3" t="s">
         <v>468</v>
       </c>
       <c r="B469">
@@ -9859,7 +9863,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="3" t="s">
         <v>469</v>
       </c>
       <c r="B470">
@@ -9876,7 +9880,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B471">
@@ -9893,7 +9897,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="3" t="s">
         <v>471</v>
       </c>
       <c r="B472">
@@ -9910,7 +9914,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="3" t="s">
         <v>472</v>
       </c>
       <c r="B473">
@@ -9927,7 +9931,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="1" t="s">
+      <c r="A474" s="3" t="s">
         <v>473</v>
       </c>
       <c r="B474">
@@ -9944,7 +9948,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B475">
@@ -9961,7 +9965,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="3" t="s">
         <v>475</v>
       </c>
       <c r="B476">
@@ -9978,7 +9982,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B477">
@@ -9995,7 +9999,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="1" t="s">
+      <c r="A478" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B478">
@@ -10012,7 +10016,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="3" t="s">
         <v>478</v>
       </c>
       <c r="B479">
@@ -10029,7 +10033,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="3" t="s">
         <v>479</v>
       </c>
       <c r="B480">
@@ -10046,7 +10050,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B481">
@@ -10063,7 +10067,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="3" t="s">
         <v>481</v>
       </c>
       <c r="B482">
@@ -10080,7 +10084,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B483">
@@ -10097,7 +10101,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="3" t="s">
         <v>483</v>
       </c>
       <c r="B484">
@@ -10114,7 +10118,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="1" t="s">
+      <c r="A485" s="3" t="s">
         <v>484</v>
       </c>
       <c r="B485">
@@ -10131,7 +10135,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="3" t="s">
         <v>485</v>
       </c>
       <c r="B486">
@@ -10148,7 +10152,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="1" t="s">
+      <c r="A487" s="3" t="s">
         <v>486</v>
       </c>
       <c r="B487">
@@ -10165,7 +10169,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="3" t="s">
         <v>487</v>
       </c>
       <c r="B488">
@@ -10182,7 +10186,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="3" t="s">
         <v>488</v>
       </c>
       <c r="B489">
@@ -10199,7 +10203,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="1" t="s">
+      <c r="A490" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B490">
@@ -10216,7 +10220,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="1" t="s">
+      <c r="A491" s="3" t="s">
         <v>490</v>
       </c>
       <c r="B491">
@@ -10233,7 +10237,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="3" t="s">
         <v>491</v>
       </c>
       <c r="B492">
@@ -10250,7 +10254,7 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="3" t="s">
         <v>492</v>
       </c>
       <c r="B493">
@@ -10267,7 +10271,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="3" t="s">
         <v>493</v>
       </c>
       <c r="B494">
@@ -10284,7 +10288,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="3" t="s">
         <v>494</v>
       </c>
       <c r="B495">
@@ -10301,7 +10305,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="1" t="s">
+      <c r="A496" s="3" t="s">
         <v>495</v>
       </c>
       <c r="B496">
@@ -10318,7 +10322,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="1" t="s">
+      <c r="A497" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B497">
@@ -10335,7 +10339,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="3" t="s">
         <v>497</v>
       </c>
       <c r="B498">
@@ -10352,7 +10356,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="1" t="s">
+      <c r="A499" s="3" t="s">
         <v>498</v>
       </c>
       <c r="B499">
@@ -10369,7 +10373,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="1" t="s">
+      <c r="A500" s="3" t="s">
         <v>499</v>
       </c>
       <c r="B500">
@@ -10386,7 +10390,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="1" t="s">
+      <c r="A501" s="3" t="s">
         <v>500</v>
       </c>
       <c r="B501">
@@ -10403,7 +10407,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="1" t="s">
+      <c r="A502" s="3" t="s">
         <v>501</v>
       </c>
       <c r="B502">
@@ -10420,7 +10424,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="1" t="s">
+      <c r="A503" s="3" t="s">
         <v>502</v>
       </c>
       <c r="B503">
@@ -10437,7 +10441,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="1" t="s">
+      <c r="A504" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B504">
@@ -10454,7 +10458,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="1" t="s">
+      <c r="A505" s="3" t="s">
         <v>504</v>
       </c>
       <c r="B505">
@@ -10471,7 +10475,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="1" t="s">
+      <c r="A506" s="3" t="s">
         <v>505</v>
       </c>
       <c r="B506">
@@ -10488,7 +10492,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="1" t="s">
+      <c r="A507" s="3" t="s">
         <v>506</v>
       </c>
       <c r="B507">
@@ -10505,7 +10509,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="1" t="s">
+      <c r="A508" s="3" t="s">
         <v>507</v>
       </c>
       <c r="B508">
@@ -10522,7 +10526,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="1" t="s">
+      <c r="A509" s="3" t="s">
         <v>508</v>
       </c>
       <c r="B509">
@@ -10539,7 +10543,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="1" t="s">
+      <c r="A510" s="3" t="s">
         <v>509</v>
       </c>
       <c r="B510">
@@ -10556,7 +10560,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="1" t="s">
+      <c r="A511" s="3" t="s">
         <v>510</v>
       </c>
       <c r="B511">
@@ -10573,7 +10577,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="1" t="s">
+      <c r="A512" s="3" t="s">
         <v>511</v>
       </c>
       <c r="B512">
@@ -10590,7 +10594,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="1" t="s">
+      <c r="A513" s="3" t="s">
         <v>512</v>
       </c>
       <c r="B513">
@@ -10607,7 +10611,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="1" t="s">
+      <c r="A514" s="3" t="s">
         <v>513</v>
       </c>
       <c r="B514">
@@ -10624,7 +10628,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="1" t="s">
+      <c r="A515" s="3" t="s">
         <v>514</v>
       </c>
       <c r="B515">
@@ -10641,7 +10645,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="1" t="s">
+      <c r="A516" s="3" t="s">
         <v>515</v>
       </c>
       <c r="B516">
@@ -10658,7 +10662,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="1" t="s">
+      <c r="A517" s="3" t="s">
         <v>516</v>
       </c>
       <c r="B517">
@@ -10675,7 +10679,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="1" t="s">
+      <c r="A518" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B518">
@@ -10692,7 +10696,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="1" t="s">
+      <c r="A519" s="3" t="s">
         <v>518</v>
       </c>
       <c r="B519">
@@ -10709,7 +10713,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="1" t="s">
+      <c r="A520" s="3" t="s">
         <v>519</v>
       </c>
       <c r="B520">
@@ -10726,7 +10730,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="1" t="s">
+      <c r="A521" s="3" t="s">
         <v>520</v>
       </c>
       <c r="B521">
@@ -10743,7 +10747,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="1" t="s">
+      <c r="A522" s="3" t="s">
         <v>521</v>
       </c>
       <c r="B522">
@@ -10760,7 +10764,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="1" t="s">
+      <c r="A523" s="3" t="s">
         <v>522</v>
       </c>
       <c r="B523">
@@ -10777,7 +10781,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="1" t="s">
+      <c r="A524" s="3" t="s">
         <v>523</v>
       </c>
       <c r="B524">
@@ -10794,7 +10798,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="1" t="s">
+      <c r="A525" s="3" t="s">
         <v>524</v>
       </c>
       <c r="B525">
@@ -10811,7 +10815,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="1" t="s">
+      <c r="A526" s="3" t="s">
         <v>525</v>
       </c>
       <c r="B526">
@@ -10828,7 +10832,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="1" t="s">
+      <c r="A527" s="3" t="s">
         <v>526</v>
       </c>
       <c r="B527">
@@ -10845,7 +10849,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="1" t="s">
+      <c r="A528" s="3" t="s">
         <v>527</v>
       </c>
       <c r="B528">
@@ -10862,7 +10866,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="1" t="s">
+      <c r="A529" s="3" t="s">
         <v>528</v>
       </c>
       <c r="B529">
@@ -10879,7 +10883,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="1" t="s">
+      <c r="A530" s="3" t="s">
         <v>529</v>
       </c>
       <c r="B530">
@@ -10896,7 +10900,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="1" t="s">
+      <c r="A531" s="3" t="s">
         <v>530</v>
       </c>
       <c r="B531">
@@ -10913,7 +10917,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="1" t="s">
+      <c r="A532" s="3" t="s">
         <v>531</v>
       </c>
       <c r="B532">
@@ -10930,7 +10934,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="1" t="s">
+      <c r="A533" s="3" t="s">
         <v>532</v>
       </c>
       <c r="B533">
@@ -10947,7 +10951,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="1" t="s">
+      <c r="A534" s="3" t="s">
         <v>533</v>
       </c>
       <c r="B534">
@@ -10964,7 +10968,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="1" t="s">
+      <c r="A535" s="3" t="s">
         <v>534</v>
       </c>
       <c r="B535">
@@ -10981,7 +10985,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="1" t="s">
+      <c r="A536" s="3" t="s">
         <v>535</v>
       </c>
       <c r="B536">
@@ -10998,7 +11002,7 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="1" t="s">
+      <c r="A537" s="3" t="s">
         <v>536</v>
       </c>
       <c r="B537">
@@ -11015,7 +11019,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="1" t="s">
+      <c r="A538" s="3" t="s">
         <v>537</v>
       </c>
       <c r="B538">
@@ -11032,7 +11036,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="1" t="s">
+      <c r="A539" s="3" t="s">
         <v>538</v>
       </c>
       <c r="B539">
@@ -11049,7 +11053,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="1" t="s">
+      <c r="A540" s="3" t="s">
         <v>539</v>
       </c>
       <c r="B540">
@@ -11066,7 +11070,7 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="1" t="s">
+      <c r="A541" s="3" t="s">
         <v>540</v>
       </c>
       <c r="B541">
@@ -11083,7 +11087,7 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="1" t="s">
+      <c r="A542" s="3" t="s">
         <v>541</v>
       </c>
       <c r="B542">
@@ -11100,7 +11104,7 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="1" t="s">
+      <c r="A543" s="3" t="s">
         <v>542</v>
       </c>
       <c r="B543">
@@ -11117,7 +11121,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="1" t="s">
+      <c r="A544" s="3" t="s">
         <v>543</v>
       </c>
       <c r="B544">
@@ -11134,7 +11138,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="1" t="s">
+      <c r="A545" s="3" t="s">
         <v>544</v>
       </c>
       <c r="B545">
@@ -11151,7 +11155,7 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="1" t="s">
+      <c r="A546" s="3" t="s">
         <v>545</v>
       </c>
       <c r="B546">
@@ -11168,7 +11172,7 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="1" t="s">
+      <c r="A547" s="3" t="s">
         <v>546</v>
       </c>
       <c r="B547">
@@ -11185,7 +11189,7 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="1" t="s">
+      <c r="A548" s="3" t="s">
         <v>547</v>
       </c>
       <c r="B548">
@@ -11202,7 +11206,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="1" t="s">
+      <c r="A549" s="3" t="s">
         <v>548</v>
       </c>
       <c r="B549">
@@ -11219,7 +11223,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="1" t="s">
+      <c r="A550" s="3" t="s">
         <v>549</v>
       </c>
       <c r="B550">
@@ -11236,7 +11240,7 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="1" t="s">
+      <c r="A551" s="3" t="s">
         <v>550</v>
       </c>
       <c r="B551">
@@ -11253,7 +11257,7 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="1" t="s">
+      <c r="A552" s="3" t="s">
         <v>551</v>
       </c>
       <c r="B552">
@@ -11270,7 +11274,7 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="1" t="s">
+      <c r="A553" s="3" t="s">
         <v>552</v>
       </c>
       <c r="B553">
@@ -11287,7 +11291,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="1" t="s">
+      <c r="A554" s="3" t="s">
         <v>553</v>
       </c>
       <c r="B554">
@@ -11304,7 +11308,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="1" t="s">
+      <c r="A555" s="3" t="s">
         <v>554</v>
       </c>
       <c r="B555">
@@ -11321,7 +11325,7 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="1" t="s">
+      <c r="A556" s="3" t="s">
         <v>555</v>
       </c>
       <c r="B556">
@@ -11338,7 +11342,7 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="1" t="s">
+      <c r="A557" s="3" t="s">
         <v>556</v>
       </c>
       <c r="B557">
@@ -11355,7 +11359,7 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="1" t="s">
+      <c r="A558" s="3" t="s">
         <v>557</v>
       </c>
       <c r="B558">
@@ -11372,7 +11376,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="1" t="s">
+      <c r="A559" s="3" t="s">
         <v>558</v>
       </c>
       <c r="B559">
@@ -11389,7 +11393,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="1" t="s">
+      <c r="A560" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B560">
@@ -11406,7 +11410,7 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="1" t="s">
+      <c r="A561" s="3" t="s">
         <v>560</v>
       </c>
       <c r="B561">
@@ -11423,7 +11427,7 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="1" t="s">
+      <c r="A562" s="3" t="s">
         <v>561</v>
       </c>
       <c r="B562">
@@ -11440,7 +11444,7 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="1" t="s">
+      <c r="A563" s="3" t="s">
         <v>562</v>
       </c>
       <c r="B563">
@@ -11457,7 +11461,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="1" t="s">
+      <c r="A564" s="3" t="s">
         <v>563</v>
       </c>
       <c r="B564">
@@ -11474,7 +11478,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="1" t="s">
+      <c r="A565" s="3" t="s">
         <v>564</v>
       </c>
       <c r="B565">
@@ -11491,7 +11495,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="1" t="s">
+      <c r="A566" s="3" t="s">
         <v>565</v>
       </c>
       <c r="B566">
@@ -11508,7 +11512,7 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="1" t="s">
+      <c r="A567" s="3" t="s">
         <v>566</v>
       </c>
       <c r="B567">
@@ -11525,7 +11529,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="1" t="s">
+      <c r="A568" s="3" t="s">
         <v>567</v>
       </c>
       <c r="B568">
@@ -11542,7 +11546,7 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="1" t="s">
+      <c r="A569" s="3" t="s">
         <v>568</v>
       </c>
       <c r="B569">
@@ -11559,7 +11563,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="1" t="s">
+      <c r="A570" s="3" t="s">
         <v>569</v>
       </c>
       <c r="B570">
@@ -11576,7 +11580,7 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="1" t="s">
+      <c r="A571" s="3" t="s">
         <v>570</v>
       </c>
       <c r="B571">
@@ -11593,7 +11597,7 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="1" t="s">
+      <c r="A572" s="3" t="s">
         <v>571</v>
       </c>
       <c r="B572">
@@ -11610,7 +11614,7 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="1" t="s">
+      <c r="A573" s="3" t="s">
         <v>572</v>
       </c>
       <c r="B573">
@@ -11627,7 +11631,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="1" t="s">
+      <c r="A574" s="3" t="s">
         <v>573</v>
       </c>
       <c r="B574">
@@ -11644,7 +11648,7 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="1" t="s">
+      <c r="A575" s="3" t="s">
         <v>574</v>
       </c>
       <c r="B575">
@@ -11661,7 +11665,7 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="1" t="s">
+      <c r="A576" s="3" t="s">
         <v>575</v>
       </c>
       <c r="B576">
@@ -11678,7 +11682,7 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="1" t="s">
+      <c r="A577" s="3" t="s">
         <v>576</v>
       </c>
       <c r="B577">
@@ -11695,7 +11699,7 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="1" t="s">
+      <c r="A578" s="3" t="s">
         <v>577</v>
       </c>
       <c r="B578">
@@ -11712,7 +11716,7 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="1" t="s">
+      <c r="A579" s="3" t="s">
         <v>578</v>
       </c>
       <c r="B579">
@@ -11729,7 +11733,7 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="1" t="s">
+      <c r="A580" s="3" t="s">
         <v>579</v>
       </c>
       <c r="B580">
@@ -11746,7 +11750,7 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="1" t="s">
+      <c r="A581" s="3" t="s">
         <v>580</v>
       </c>
       <c r="B581">
@@ -11763,7 +11767,7 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="1" t="s">
+      <c r="A582" s="3" t="s">
         <v>581</v>
       </c>
       <c r="B582">
@@ -11780,7 +11784,7 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="1" t="s">
+      <c r="A583" s="3" t="s">
         <v>582</v>
       </c>
       <c r="B583">
@@ -11797,7 +11801,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="1" t="s">
+      <c r="A584" s="3" t="s">
         <v>583</v>
       </c>
       <c r="B584">
@@ -11814,7 +11818,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="1" t="s">
+      <c r="A585" s="3" t="s">
         <v>584</v>
       </c>
       <c r="B585">
@@ -11831,7 +11835,7 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="1" t="s">
+      <c r="A586" s="3" t="s">
         <v>585</v>
       </c>
       <c r="B586">
@@ -11848,7 +11852,7 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="1" t="s">
+      <c r="A587" s="3" t="s">
         <v>586</v>
       </c>
       <c r="B587">
@@ -11865,7 +11869,7 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="1" t="s">
+      <c r="A588" s="3" t="s">
         <v>587</v>
       </c>
       <c r="B588">
@@ -11882,7 +11886,7 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="1" t="s">
+      <c r="A589" s="3" t="s">
         <v>588</v>
       </c>
       <c r="B589">
@@ -11899,7 +11903,7 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="1" t="s">
+      <c r="A590" s="3" t="s">
         <v>589</v>
       </c>
       <c r="B590">
@@ -11916,7 +11920,7 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="1" t="s">
+      <c r="A591" s="3" t="s">
         <v>590</v>
       </c>
       <c r="B591">
@@ -11933,7 +11937,7 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="1" t="s">
+      <c r="A592" s="3" t="s">
         <v>591</v>
       </c>
       <c r="B592">
@@ -11950,7 +11954,7 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="1" t="s">
+      <c r="A593" s="3" t="s">
         <v>592</v>
       </c>
       <c r="B593">
@@ -11967,7 +11971,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="1" t="s">
+      <c r="A594" s="3" t="s">
         <v>593</v>
       </c>
       <c r="B594">
@@ -11984,7 +11988,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="1" t="s">
+      <c r="A595" s="3" t="s">
         <v>594</v>
       </c>
       <c r="B595">
@@ -12001,7 +12005,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="1" t="s">
+      <c r="A596" s="3" t="s">
         <v>595</v>
       </c>
       <c r="B596">
@@ -12018,7 +12022,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="1" t="s">
+      <c r="A597" s="3" t="s">
         <v>596</v>
       </c>
       <c r="B597">
@@ -12035,7 +12039,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="1" t="s">
+      <c r="A598" s="3" t="s">
         <v>597</v>
       </c>
       <c r="B598">
@@ -12052,7 +12056,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="1" t="s">
+      <c r="A599" s="3" t="s">
         <v>598</v>
       </c>
       <c r="B599">
@@ -12069,7 +12073,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="1" t="s">
+      <c r="A600" s="3" t="s">
         <v>599</v>
       </c>
       <c r="B600">
@@ -12086,7 +12090,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="1" t="s">
+      <c r="A601" s="3" t="s">
         <v>600</v>
       </c>
       <c r="B601">

--- a/EFI/CODE/output/FMP/AllStocksStyle_20200930.xlsx
+++ b/EFI/CODE/output/FMP/AllStocksStyle_20200930.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="605">
   <si>
     <t>sedol</t>
   </si>
@@ -1848,7 +1848,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1860,16 +1860,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1890,24 +1894,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1924,7 +1928,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1941,7 +1945,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1958,7 +1962,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1975,7 +1979,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1992,7 +1996,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2009,7 +2013,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2026,7 +2030,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -2043,7 +2047,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -2060,7 +2064,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -2077,7 +2081,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2094,7 +2098,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2111,7 +2115,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2128,7 +2132,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2145,7 +2149,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2162,7 +2166,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2179,7 +2183,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2196,7 +2200,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2213,7 +2217,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2230,7 +2234,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2247,7 +2251,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -2264,7 +2268,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -2281,7 +2285,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -2298,7 +2302,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -2315,7 +2319,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -2332,7 +2336,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -2349,7 +2353,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2366,7 +2370,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2383,7 +2387,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2400,7 +2404,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -2417,7 +2421,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -2434,7 +2438,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -2451,7 +2455,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -2468,7 +2472,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -2485,7 +2489,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -2502,7 +2506,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -2519,7 +2523,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -2536,7 +2540,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -2553,7 +2557,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -2570,7 +2574,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -2587,7 +2591,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -2604,7 +2608,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -2621,7 +2625,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -2638,7 +2642,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -2655,7 +2659,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -2672,7 +2676,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -2689,7 +2693,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -2706,7 +2710,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -2723,7 +2727,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -2740,7 +2744,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -2757,7 +2761,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -2774,7 +2778,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -2791,7 +2795,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -2808,7 +2812,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -2825,7 +2829,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -2842,7 +2846,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2859,7 +2863,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2876,7 +2880,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2893,7 +2897,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2910,7 +2914,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2927,7 +2931,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -2944,7 +2948,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -2961,7 +2965,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2978,7 +2982,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -2995,7 +2999,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -3012,7 +3016,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -3029,7 +3033,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -3046,7 +3050,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -3063,7 +3067,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -3080,7 +3084,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -3097,7 +3101,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -3114,7 +3118,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -3131,7 +3135,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -3148,7 +3152,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -3165,7 +3169,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -3182,7 +3186,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -3199,7 +3203,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -3216,7 +3220,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -3233,7 +3237,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -3250,7 +3254,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -3267,7 +3271,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -3284,7 +3288,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -3301,7 +3305,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -3318,7 +3322,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -3335,7 +3339,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -3352,7 +3356,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -3369,7 +3373,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -3386,7 +3390,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -3403,7 +3407,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -3420,7 +3424,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -3437,7 +3441,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -3454,7 +3458,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -3471,7 +3475,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -3488,7 +3492,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -3505,7 +3509,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -3522,7 +3526,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -3539,7 +3543,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -3556,7 +3560,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -3573,7 +3577,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -3590,7 +3594,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -3607,7 +3611,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -3624,7 +3628,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -3641,7 +3645,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -3658,7 +3662,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -3675,7 +3679,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -3692,7 +3696,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -3709,7 +3713,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -3726,7 +3730,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -3743,7 +3747,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -3760,7 +3764,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -3777,7 +3781,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -3794,7 +3798,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -3811,7 +3815,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -3828,7 +3832,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -3845,7 +3849,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -3862,7 +3866,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -3879,7 +3883,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -3896,7 +3900,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -3913,7 +3917,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -3930,7 +3934,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -3947,7 +3951,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -3964,7 +3968,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -3981,7 +3985,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -3998,7 +4002,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -4015,7 +4019,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -4032,7 +4036,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -4049,7 +4053,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -4066,7 +4070,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -4083,7 +4087,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -4100,7 +4104,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -4117,7 +4121,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -4134,7 +4138,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -4151,7 +4155,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -4168,7 +4172,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -4185,7 +4189,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -4202,7 +4206,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -4219,7 +4223,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -4236,7 +4240,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -4253,7 +4257,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -4270,7 +4274,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -4287,7 +4291,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -4304,7 +4308,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -4321,7 +4325,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -4338,7 +4342,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -4355,7 +4359,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -4372,7 +4376,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -4389,7 +4393,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -4406,7 +4410,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -4423,7 +4427,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -4440,7 +4444,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -4457,7 +4461,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -4474,7 +4478,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -4491,7 +4495,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -4508,7 +4512,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -4525,7 +4529,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -4542,7 +4546,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -4559,7 +4563,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -4576,7 +4580,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -4593,7 +4597,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -4610,7 +4614,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -4627,7 +4631,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -4644,7 +4648,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -4661,7 +4665,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -4678,7 +4682,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -4695,7 +4699,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -4712,7 +4716,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -4729,7 +4733,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -4746,7 +4750,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -4763,7 +4767,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -4780,7 +4784,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -4797,7 +4801,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -4814,7 +4818,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -4831,7 +4835,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -4848,7 +4852,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -4865,7 +4869,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -4882,7 +4886,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -4899,7 +4903,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -4916,7 +4920,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -4933,7 +4937,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -4950,7 +4954,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -4967,7 +4971,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -4984,7 +4988,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -5001,7 +5005,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -5018,7 +5022,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -5035,7 +5039,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -5052,7 +5056,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -5069,7 +5073,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -5086,7 +5090,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -5103,7 +5107,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -5120,7 +5124,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -5137,7 +5141,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -5154,7 +5158,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -5171,7 +5175,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -5188,7 +5192,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="5" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -5205,7 +5209,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -5222,7 +5226,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -5239,7 +5243,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -5256,7 +5260,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -5273,7 +5277,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -5290,7 +5294,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="5" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -5307,7 +5311,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -5324,7 +5328,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -5341,7 +5345,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="5" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -5358,7 +5362,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -5375,7 +5379,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -5392,7 +5396,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -5409,7 +5413,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -5426,7 +5430,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -5443,7 +5447,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="5" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -5460,7 +5464,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -5477,7 +5481,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -5494,7 +5498,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B213">
@@ -5511,7 +5515,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B214">
@@ -5528,7 +5532,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B215">
@@ -5545,7 +5549,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B216">
@@ -5562,7 +5566,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B217">
@@ -5579,7 +5583,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B218">
@@ -5596,7 +5600,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B219">
@@ -5613,7 +5617,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B220">
@@ -5630,7 +5634,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B221">
@@ -5647,7 +5651,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B222">
@@ -5664,7 +5668,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B223">
@@ -5681,7 +5685,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B224">
@@ -5698,7 +5702,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="5" t="s">
         <v>224</v>
       </c>
       <c r="B225">
@@ -5715,7 +5719,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="5" t="s">
         <v>225</v>
       </c>
       <c r="B226">
@@ -5732,7 +5736,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B227">
@@ -5749,7 +5753,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="5" t="s">
         <v>227</v>
       </c>
       <c r="B228">
@@ -5766,7 +5770,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="5" t="s">
         <v>228</v>
       </c>
       <c r="B229">
@@ -5783,7 +5787,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B230">
@@ -5800,7 +5804,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B231">
@@ -5817,7 +5821,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="5" t="s">
         <v>231</v>
       </c>
       <c r="B232">
@@ -5834,7 +5838,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B233">
@@ -5851,7 +5855,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="5" t="s">
         <v>233</v>
       </c>
       <c r="B234">
@@ -5868,7 +5872,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="5" t="s">
         <v>234</v>
       </c>
       <c r="B235">
@@ -5885,7 +5889,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="5" t="s">
         <v>235</v>
       </c>
       <c r="B236">
@@ -5902,7 +5906,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B237">
@@ -5919,7 +5923,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="5" t="s">
         <v>237</v>
       </c>
       <c r="B238">
@@ -5936,7 +5940,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="5" t="s">
         <v>238</v>
       </c>
       <c r="B239">
@@ -5953,7 +5957,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="5" t="s">
         <v>239</v>
       </c>
       <c r="B240">
@@ -5970,7 +5974,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="5" t="s">
         <v>240</v>
       </c>
       <c r="B241">
@@ -5987,7 +5991,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="5" t="s">
         <v>241</v>
       </c>
       <c r="B242">
@@ -6004,7 +6008,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="5" t="s">
         <v>242</v>
       </c>
       <c r="B243">
@@ -6021,7 +6025,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B244">
@@ -6038,7 +6042,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="5" t="s">
         <v>244</v>
       </c>
       <c r="B245">
@@ -6055,7 +6059,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="5" t="s">
         <v>245</v>
       </c>
       <c r="B246">
@@ -6072,7 +6076,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="5" t="s">
         <v>246</v>
       </c>
       <c r="B247">
@@ -6089,7 +6093,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="5" t="s">
         <v>247</v>
       </c>
       <c r="B248">
@@ -6106,7 +6110,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="5" t="s">
         <v>248</v>
       </c>
       <c r="B249">
@@ -6123,7 +6127,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="5" t="s">
         <v>249</v>
       </c>
       <c r="B250">
@@ -6140,7 +6144,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="5" t="s">
         <v>250</v>
       </c>
       <c r="B251">
@@ -6157,7 +6161,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="5" t="s">
         <v>251</v>
       </c>
       <c r="B252">
@@ -6174,7 +6178,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="5" t="s">
         <v>252</v>
       </c>
       <c r="B253">
@@ -6191,7 +6195,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="5" t="s">
         <v>253</v>
       </c>
       <c r="B254">
@@ -6208,7 +6212,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="5" t="s">
         <v>254</v>
       </c>
       <c r="B255">
@@ -6225,7 +6229,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B256">
@@ -6242,7 +6246,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="5" t="s">
         <v>256</v>
       </c>
       <c r="B257">
@@ -6259,7 +6263,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="5" t="s">
         <v>257</v>
       </c>
       <c r="B258">
@@ -6276,7 +6280,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B259">
@@ -6293,7 +6297,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="5" t="s">
         <v>259</v>
       </c>
       <c r="B260">
@@ -6310,7 +6314,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="5" t="s">
         <v>260</v>
       </c>
       <c r="B261">
@@ -6327,7 +6331,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="5" t="s">
         <v>261</v>
       </c>
       <c r="B262">
@@ -6344,7 +6348,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="5" t="s">
         <v>262</v>
       </c>
       <c r="B263">
@@ -6361,7 +6365,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="5" t="s">
         <v>263</v>
       </c>
       <c r="B264">
@@ -6378,7 +6382,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B265">
@@ -6395,7 +6399,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B266">
@@ -6412,7 +6416,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="5" t="s">
         <v>266</v>
       </c>
       <c r="B267">
@@ -6429,7 +6433,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="5" t="s">
         <v>267</v>
       </c>
       <c r="B268">
@@ -6446,7 +6450,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="5" t="s">
         <v>268</v>
       </c>
       <c r="B269">
@@ -6463,7 +6467,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="5" t="s">
         <v>269</v>
       </c>
       <c r="B270">
@@ -6480,7 +6484,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="5" t="s">
         <v>270</v>
       </c>
       <c r="B271">
@@ -6497,7 +6501,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="5" t="s">
         <v>271</v>
       </c>
       <c r="B272">
@@ -6514,7 +6518,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B273">
@@ -6531,7 +6535,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B274">
@@ -6548,7 +6552,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B275">
@@ -6565,7 +6569,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="5" t="s">
         <v>275</v>
       </c>
       <c r="B276">
@@ -6582,7 +6586,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="5" t="s">
         <v>276</v>
       </c>
       <c r="B277">
@@ -6599,7 +6603,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B278">
@@ -6616,7 +6620,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B279">
@@ -6633,7 +6637,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B280">
@@ -6650,7 +6654,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B281">
@@ -6667,7 +6671,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B282">
@@ -6684,7 +6688,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B283">
@@ -6701,7 +6705,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B284">
@@ -6718,7 +6722,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B285">
@@ -6735,7 +6739,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B286">
@@ -6752,7 +6756,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="5" t="s">
         <v>286</v>
       </c>
       <c r="B287">
@@ -6769,7 +6773,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="5" t="s">
         <v>287</v>
       </c>
       <c r="B288">
@@ -6786,7 +6790,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="5" t="s">
         <v>288</v>
       </c>
       <c r="B289">
@@ -6803,7 +6807,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="5" t="s">
         <v>289</v>
       </c>
       <c r="B290">
@@ -6820,7 +6824,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B291">
@@ -6837,7 +6841,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="5" t="s">
         <v>291</v>
       </c>
       <c r="B292">
@@ -6854,7 +6858,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="5" t="s">
         <v>292</v>
       </c>
       <c r="B293">
@@ -6871,7 +6875,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="5" t="s">
         <v>293</v>
       </c>
       <c r="B294">
@@ -6888,7 +6892,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="5" t="s">
         <v>294</v>
       </c>
       <c r="B295">
@@ -6905,7 +6909,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="5" t="s">
         <v>295</v>
       </c>
       <c r="B296">
@@ -6922,7 +6926,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B297">
@@ -6939,7 +6943,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B298">
@@ -6956,7 +6960,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B299">
@@ -6973,7 +6977,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="5" t="s">
         <v>299</v>
       </c>
       <c r="B300">
@@ -6990,7 +6994,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B301">
@@ -7007,7 +7011,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="5" t="s">
         <v>301</v>
       </c>
       <c r="B302">
@@ -7024,7 +7028,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="5" t="s">
         <v>302</v>
       </c>
       <c r="B303">
@@ -7041,7 +7045,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="5" t="s">
         <v>303</v>
       </c>
       <c r="B304">
@@ -7058,7 +7062,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B305">
@@ -7075,7 +7079,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="5" t="s">
         <v>305</v>
       </c>
       <c r="B306">
@@ -7092,7 +7096,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="5" t="s">
         <v>306</v>
       </c>
       <c r="B307">
@@ -7109,7 +7113,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="5" t="s">
         <v>307</v>
       </c>
       <c r="B308">
@@ -7126,7 +7130,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="5" t="s">
         <v>308</v>
       </c>
       <c r="B309">
@@ -7143,7 +7147,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="3" t="s">
+      <c r="A310" s="5" t="s">
         <v>309</v>
       </c>
       <c r="B310">
@@ -7160,7 +7164,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="5" t="s">
         <v>310</v>
       </c>
       <c r="B311">
@@ -7177,7 +7181,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="5" t="s">
         <v>311</v>
       </c>
       <c r="B312">
@@ -7194,7 +7198,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="5" t="s">
         <v>312</v>
       </c>
       <c r="B313">
@@ -7211,7 +7215,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="5" t="s">
         <v>313</v>
       </c>
       <c r="B314">
@@ -7228,7 +7232,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="5" t="s">
         <v>314</v>
       </c>
       <c r="B315">
@@ -7245,7 +7249,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="3" t="s">
+      <c r="A316" s="5" t="s">
         <v>315</v>
       </c>
       <c r="B316">
@@ -7262,7 +7266,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="5" t="s">
         <v>316</v>
       </c>
       <c r="B317">
@@ -7279,7 +7283,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B318">
@@ -7296,7 +7300,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="5" t="s">
         <v>318</v>
       </c>
       <c r="B319">
@@ -7313,7 +7317,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="5" t="s">
         <v>319</v>
       </c>
       <c r="B320">
@@ -7330,7 +7334,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="3" t="s">
+      <c r="A321" s="5" t="s">
         <v>320</v>
       </c>
       <c r="B321">
@@ -7347,7 +7351,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="3" t="s">
+      <c r="A322" s="5" t="s">
         <v>321</v>
       </c>
       <c r="B322">
@@ -7364,7 +7368,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="5" t="s">
         <v>322</v>
       </c>
       <c r="B323">
@@ -7381,7 +7385,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="5" t="s">
         <v>323</v>
       </c>
       <c r="B324">
@@ -7398,7 +7402,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="5" t="s">
         <v>324</v>
       </c>
       <c r="B325">
@@ -7415,7 +7419,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B326">
@@ -7432,7 +7436,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B327">
@@ -7449,7 +7453,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="5" t="s">
         <v>327</v>
       </c>
       <c r="B328">
@@ -7466,7 +7470,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="5" t="s">
         <v>328</v>
       </c>
       <c r="B329">
@@ -7483,7 +7487,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="3" t="s">
+      <c r="A330" s="5" t="s">
         <v>329</v>
       </c>
       <c r="B330">
@@ -7500,7 +7504,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B331">
@@ -7517,7 +7521,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="5" t="s">
         <v>331</v>
       </c>
       <c r="B332">
@@ -7534,7 +7538,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="5" t="s">
         <v>332</v>
       </c>
       <c r="B333">
@@ -7551,7 +7555,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="5" t="s">
         <v>333</v>
       </c>
       <c r="B334">
@@ -7568,7 +7572,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="5" t="s">
         <v>334</v>
       </c>
       <c r="B335">
@@ -7585,7 +7589,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="5" t="s">
         <v>335</v>
       </c>
       <c r="B336">
@@ -7602,7 +7606,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="5" t="s">
         <v>336</v>
       </c>
       <c r="B337">
@@ -7619,7 +7623,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="5" t="s">
         <v>337</v>
       </c>
       <c r="B338">
@@ -7636,7 +7640,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="5" t="s">
         <v>338</v>
       </c>
       <c r="B339">
@@ -7653,7 +7657,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="5" t="s">
         <v>339</v>
       </c>
       <c r="B340">
@@ -7670,7 +7674,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="3" t="s">
+      <c r="A341" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B341">
@@ -7687,7 +7691,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="3" t="s">
+      <c r="A342" s="5" t="s">
         <v>341</v>
       </c>
       <c r="B342">
@@ -7704,7 +7708,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="3" t="s">
+      <c r="A343" s="5" t="s">
         <v>342</v>
       </c>
       <c r="B343">
@@ -7721,7 +7725,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B344">
@@ -7738,7 +7742,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="3" t="s">
+      <c r="A345" s="5" t="s">
         <v>344</v>
       </c>
       <c r="B345">
@@ -7755,7 +7759,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="3" t="s">
+      <c r="A346" s="5" t="s">
         <v>345</v>
       </c>
       <c r="B346">
@@ -7772,7 +7776,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="3" t="s">
+      <c r="A347" s="5" t="s">
         <v>346</v>
       </c>
       <c r="B347">
@@ -7789,7 +7793,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="3" t="s">
+      <c r="A348" s="5" t="s">
         <v>347</v>
       </c>
       <c r="B348">
@@ -7806,7 +7810,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="3" t="s">
+      <c r="A349" s="5" t="s">
         <v>348</v>
       </c>
       <c r="B349">
@@ -7823,7 +7827,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="3" t="s">
+      <c r="A350" s="5" t="s">
         <v>349</v>
       </c>
       <c r="B350">
@@ -7840,7 +7844,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="3" t="s">
+      <c r="A351" s="5" t="s">
         <v>350</v>
       </c>
       <c r="B351">
@@ -7857,7 +7861,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="3" t="s">
+      <c r="A352" s="5" t="s">
         <v>351</v>
       </c>
       <c r="B352">
@@ -7874,7 +7878,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="3" t="s">
+      <c r="A353" s="5" t="s">
         <v>352</v>
       </c>
       <c r="B353">
@@ -7891,7 +7895,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="3" t="s">
+      <c r="A354" s="5" t="s">
         <v>353</v>
       </c>
       <c r="B354">
@@ -7908,7 +7912,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="3" t="s">
+      <c r="A355" s="5" t="s">
         <v>354</v>
       </c>
       <c r="B355">
@@ -7925,7 +7929,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="3" t="s">
+      <c r="A356" s="5" t="s">
         <v>355</v>
       </c>
       <c r="B356">
@@ -7942,7 +7946,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="3" t="s">
+      <c r="A357" s="5" t="s">
         <v>356</v>
       </c>
       <c r="B357">
@@ -7959,7 +7963,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="3" t="s">
+      <c r="A358" s="5" t="s">
         <v>357</v>
       </c>
       <c r="B358">
@@ -7976,7 +7980,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="3" t="s">
+      <c r="A359" s="5" t="s">
         <v>358</v>
       </c>
       <c r="B359">
@@ -7993,7 +7997,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="3" t="s">
+      <c r="A360" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B360">
@@ -8010,7 +8014,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="3" t="s">
+      <c r="A361" s="5" t="s">
         <v>360</v>
       </c>
       <c r="B361">
@@ -8027,7 +8031,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="3" t="s">
+      <c r="A362" s="5" t="s">
         <v>361</v>
       </c>
       <c r="B362">
@@ -8044,7 +8048,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="3" t="s">
+      <c r="A363" s="5" t="s">
         <v>362</v>
       </c>
       <c r="B363">
@@ -8061,7 +8065,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="3" t="s">
+      <c r="A364" s="5" t="s">
         <v>363</v>
       </c>
       <c r="B364">
@@ -8078,7 +8082,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="3" t="s">
+      <c r="A365" s="5" t="s">
         <v>364</v>
       </c>
       <c r="B365">
@@ -8095,7 +8099,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="3" t="s">
+      <c r="A366" s="5" t="s">
         <v>365</v>
       </c>
       <c r="B366">
@@ -8112,7 +8116,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="3" t="s">
+      <c r="A367" s="5" t="s">
         <v>366</v>
       </c>
       <c r="B367">
@@ -8129,7 +8133,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="3" t="s">
+      <c r="A368" s="5" t="s">
         <v>367</v>
       </c>
       <c r="B368">
@@ -8146,7 +8150,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="3" t="s">
+      <c r="A369" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B369">
@@ -8163,7 +8167,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="3" t="s">
+      <c r="A370" s="5" t="s">
         <v>369</v>
       </c>
       <c r="B370">
@@ -8180,7 +8184,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="3" t="s">
+      <c r="A371" s="5" t="s">
         <v>370</v>
       </c>
       <c r="B371">
@@ -8197,7 +8201,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="3" t="s">
+      <c r="A372" s="5" t="s">
         <v>371</v>
       </c>
       <c r="B372">
@@ -8214,7 +8218,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="3" t="s">
+      <c r="A373" s="5" t="s">
         <v>372</v>
       </c>
       <c r="B373">
@@ -8231,7 +8235,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="3" t="s">
+      <c r="A374" s="5" t="s">
         <v>373</v>
       </c>
       <c r="B374">
@@ -8248,7 +8252,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="3" t="s">
+      <c r="A375" s="5" t="s">
         <v>374</v>
       </c>
       <c r="B375">
@@ -8265,7 +8269,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="3" t="s">
+      <c r="A376" s="5" t="s">
         <v>375</v>
       </c>
       <c r="B376">
@@ -8282,7 +8286,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="3" t="s">
+      <c r="A377" s="5" t="s">
         <v>376</v>
       </c>
       <c r="B377">
@@ -8299,7 +8303,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="3" t="s">
+      <c r="A378" s="5" t="s">
         <v>377</v>
       </c>
       <c r="B378">
@@ -8316,7 +8320,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="3" t="s">
+      <c r="A379" s="5" t="s">
         <v>378</v>
       </c>
       <c r="B379">
@@ -8333,7 +8337,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="3" t="s">
+      <c r="A380" s="5" t="s">
         <v>379</v>
       </c>
       <c r="B380">
@@ -8350,7 +8354,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="3" t="s">
+      <c r="A381" s="5" t="s">
         <v>380</v>
       </c>
       <c r="B381">
@@ -8367,7 +8371,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="3" t="s">
+      <c r="A382" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B382">
@@ -8384,7 +8388,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="3" t="s">
+      <c r="A383" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B383">
@@ -8401,7 +8405,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="3" t="s">
+      <c r="A384" s="5" t="s">
         <v>383</v>
       </c>
       <c r="B384">
@@ -8418,7 +8422,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="3" t="s">
+      <c r="A385" s="5" t="s">
         <v>384</v>
       </c>
       <c r="B385">
@@ -8435,7 +8439,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="3" t="s">
+      <c r="A386" s="5" t="s">
         <v>385</v>
       </c>
       <c r="B386">
@@ -8452,7 +8456,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="3" t="s">
+      <c r="A387" s="5" t="s">
         <v>386</v>
       </c>
       <c r="B387">
@@ -8469,7 +8473,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="3" t="s">
+      <c r="A388" s="5" t="s">
         <v>387</v>
       </c>
       <c r="B388">
@@ -8486,7 +8490,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="3" t="s">
+      <c r="A389" s="5" t="s">
         <v>388</v>
       </c>
       <c r="B389">
@@ -8503,7 +8507,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="3" t="s">
+      <c r="A390" s="5" t="s">
         <v>389</v>
       </c>
       <c r="B390">
@@ -8520,7 +8524,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="3" t="s">
+      <c r="A391" s="5" t="s">
         <v>390</v>
       </c>
       <c r="B391">
@@ -8537,7 +8541,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="3" t="s">
+      <c r="A392" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B392">
@@ -8554,7 +8558,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="3" t="s">
+      <c r="A393" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B393">
@@ -8571,7 +8575,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="3" t="s">
+      <c r="A394" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B394">
@@ -8588,7 +8592,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="3" t="s">
+      <c r="A395" s="5" t="s">
         <v>394</v>
       </c>
       <c r="B395">
@@ -8605,7 +8609,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="3" t="s">
+      <c r="A396" s="5" t="s">
         <v>395</v>
       </c>
       <c r="B396">
@@ -8622,7 +8626,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="3" t="s">
+      <c r="A397" s="5" t="s">
         <v>396</v>
       </c>
       <c r="B397">
@@ -8639,7 +8643,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="3" t="s">
+      <c r="A398" s="5" t="s">
         <v>397</v>
       </c>
       <c r="B398">
@@ -8656,7 +8660,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="3" t="s">
+      <c r="A399" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B399">
@@ -8673,7 +8677,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="3" t="s">
+      <c r="A400" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B400">
@@ -8690,7 +8694,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="3" t="s">
+      <c r="A401" s="5" t="s">
         <v>400</v>
       </c>
       <c r="B401">
@@ -8707,7 +8711,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="3" t="s">
+      <c r="A402" s="5" t="s">
         <v>401</v>
       </c>
       <c r="B402">
@@ -8724,7 +8728,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="3" t="s">
+      <c r="A403" s="5" t="s">
         <v>402</v>
       </c>
       <c r="B403">
@@ -8741,7 +8745,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="3" t="s">
+      <c r="A404" s="5" t="s">
         <v>403</v>
       </c>
       <c r="B404">
@@ -8758,7 +8762,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="3" t="s">
+      <c r="A405" s="5" t="s">
         <v>404</v>
       </c>
       <c r="B405">
@@ -8775,7 +8779,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="3" t="s">
+      <c r="A406" s="5" t="s">
         <v>405</v>
       </c>
       <c r="B406">
@@ -8792,7 +8796,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="3" t="s">
+      <c r="A407" s="5" t="s">
         <v>406</v>
       </c>
       <c r="B407">
@@ -8809,7 +8813,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="3" t="s">
+      <c r="A408" s="5" t="s">
         <v>407</v>
       </c>
       <c r="B408">
@@ -8826,7 +8830,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="3" t="s">
+      <c r="A409" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B409">
@@ -8843,7 +8847,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="3" t="s">
+      <c r="A410" s="5" t="s">
         <v>409</v>
       </c>
       <c r="B410">
@@ -8860,7 +8864,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="3" t="s">
+      <c r="A411" s="5" t="s">
         <v>410</v>
       </c>
       <c r="B411">
@@ -8877,7 +8881,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="3" t="s">
+      <c r="A412" s="5" t="s">
         <v>411</v>
       </c>
       <c r="B412">
@@ -8894,7 +8898,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="3" t="s">
+      <c r="A413" s="5" t="s">
         <v>412</v>
       </c>
       <c r="B413">
@@ -8911,7 +8915,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="3" t="s">
+      <c r="A414" s="5" t="s">
         <v>413</v>
       </c>
       <c r="B414">
@@ -8928,7 +8932,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="3" t="s">
+      <c r="A415" s="5" t="s">
         <v>414</v>
       </c>
       <c r="B415">
@@ -8945,7 +8949,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="3" t="s">
+      <c r="A416" s="5" t="s">
         <v>415</v>
       </c>
       <c r="B416">
@@ -8962,7 +8966,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="3" t="s">
+      <c r="A417" s="5" t="s">
         <v>416</v>
       </c>
       <c r="B417">
@@ -8979,7 +8983,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="3" t="s">
+      <c r="A418" s="5" t="s">
         <v>417</v>
       </c>
       <c r="B418">
@@ -8996,7 +9000,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="3" t="s">
+      <c r="A419" s="5" t="s">
         <v>418</v>
       </c>
       <c r="B419">
@@ -9013,7 +9017,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="3" t="s">
+      <c r="A420" s="5" t="s">
         <v>419</v>
       </c>
       <c r="B420">
@@ -9030,7 +9034,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="3" t="s">
+      <c r="A421" s="5" t="s">
         <v>420</v>
       </c>
       <c r="B421">
@@ -9047,7 +9051,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="3" t="s">
+      <c r="A422" s="5" t="s">
         <v>421</v>
       </c>
       <c r="B422">
@@ -9064,7 +9068,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="3" t="s">
+      <c r="A423" s="5" t="s">
         <v>422</v>
       </c>
       <c r="B423">
@@ -9081,7 +9085,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="3" t="s">
+      <c r="A424" s="5" t="s">
         <v>423</v>
       </c>
       <c r="B424">
@@ -9098,7 +9102,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="3" t="s">
+      <c r="A425" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B425">
@@ -9115,7 +9119,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="3" t="s">
+      <c r="A426" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B426">
@@ -9132,7 +9136,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="3" t="s">
+      <c r="A427" s="5" t="s">
         <v>426</v>
       </c>
       <c r="B427">
@@ -9149,7 +9153,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="3" t="s">
+      <c r="A428" s="5" t="s">
         <v>427</v>
       </c>
       <c r="B428">
@@ -9166,7 +9170,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="3" t="s">
+      <c r="A429" s="5" t="s">
         <v>428</v>
       </c>
       <c r="B429">
@@ -9183,7 +9187,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="3" t="s">
+      <c r="A430" s="5" t="s">
         <v>429</v>
       </c>
       <c r="B430">
@@ -9200,7 +9204,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="3" t="s">
+      <c r="A431" s="5" t="s">
         <v>430</v>
       </c>
       <c r="B431">
@@ -9217,7 +9221,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="3" t="s">
+      <c r="A432" s="5" t="s">
         <v>431</v>
       </c>
       <c r="B432">
@@ -9234,7 +9238,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="3" t="s">
+      <c r="A433" s="5" t="s">
         <v>432</v>
       </c>
       <c r="B433">
@@ -9251,7 +9255,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="3" t="s">
+      <c r="A434" s="5" t="s">
         <v>433</v>
       </c>
       <c r="B434">
@@ -9268,7 +9272,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="3" t="s">
+      <c r="A435" s="5" t="s">
         <v>434</v>
       </c>
       <c r="B435">
@@ -9285,7 +9289,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="3" t="s">
+      <c r="A436" s="5" t="s">
         <v>435</v>
       </c>
       <c r="B436">
@@ -9302,7 +9306,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="3" t="s">
+      <c r="A437" s="5" t="s">
         <v>436</v>
       </c>
       <c r="B437">
@@ -9319,7 +9323,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="3" t="s">
+      <c r="A438" s="5" t="s">
         <v>437</v>
       </c>
       <c r="B438">
@@ -9336,7 +9340,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="3" t="s">
+      <c r="A439" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B439">
@@ -9353,7 +9357,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="3" t="s">
+      <c r="A440" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B440">
@@ -9370,7 +9374,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="3" t="s">
+      <c r="A441" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B441">
@@ -9387,7 +9391,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="3" t="s">
+      <c r="A442" s="5" t="s">
         <v>441</v>
       </c>
       <c r="B442">
@@ -9404,7 +9408,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="3" t="s">
+      <c r="A443" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B443">
@@ -9421,7 +9425,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="3" t="s">
+      <c r="A444" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B444">
@@ -9438,7 +9442,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="3" t="s">
+      <c r="A445" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B445">
@@ -9455,7 +9459,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="3" t="s">
+      <c r="A446" s="5" t="s">
         <v>445</v>
       </c>
       <c r="B446">
@@ -9472,7 +9476,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="3" t="s">
+      <c r="A447" s="5" t="s">
         <v>446</v>
       </c>
       <c r="B447">
@@ -9489,7 +9493,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="3" t="s">
+      <c r="A448" s="5" t="s">
         <v>447</v>
       </c>
       <c r="B448">
@@ -9506,7 +9510,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="3" t="s">
+      <c r="A449" s="5" t="s">
         <v>448</v>
       </c>
       <c r="B449">
@@ -9523,7 +9527,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="3" t="s">
+      <c r="A450" s="5" t="s">
         <v>449</v>
       </c>
       <c r="B450">
@@ -9540,7 +9544,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="3" t="s">
+      <c r="A451" s="5" t="s">
         <v>450</v>
       </c>
       <c r="B451">
@@ -9557,7 +9561,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="3" t="s">
+      <c r="A452" s="5" t="s">
         <v>451</v>
       </c>
       <c r="B452">
@@ -9574,7 +9578,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="3" t="s">
+      <c r="A453" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B453">
@@ -9591,7 +9595,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="3" t="s">
+      <c r="A454" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B454">
@@ -9608,7 +9612,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="3" t="s">
+      <c r="A455" s="5" t="s">
         <v>454</v>
       </c>
       <c r="B455">
@@ -9625,7 +9629,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="3" t="s">
+      <c r="A456" s="5" t="s">
         <v>455</v>
       </c>
       <c r="B456">
@@ -9642,7 +9646,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="3" t="s">
+      <c r="A457" s="5" t="s">
         <v>456</v>
       </c>
       <c r="B457">
@@ -9659,7 +9663,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="3" t="s">
+      <c r="A458" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B458">
@@ -9676,7 +9680,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="3" t="s">
+      <c r="A459" s="5" t="s">
         <v>458</v>
       </c>
       <c r="B459">
@@ -9693,7 +9697,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="3" t="s">
+      <c r="A460" s="5" t="s">
         <v>459</v>
       </c>
       <c r="B460">
@@ -9710,7 +9714,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="3" t="s">
+      <c r="A461" s="5" t="s">
         <v>460</v>
       </c>
       <c r="B461">
@@ -9727,7 +9731,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="3" t="s">
+      <c r="A462" s="5" t="s">
         <v>461</v>
       </c>
       <c r="B462">
@@ -9744,7 +9748,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="3" t="s">
+      <c r="A463" s="5" t="s">
         <v>462</v>
       </c>
       <c r="B463">
@@ -9761,7 +9765,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="3" t="s">
+      <c r="A464" s="5" t="s">
         <v>463</v>
       </c>
       <c r="B464">
@@ -9778,7 +9782,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="3" t="s">
+      <c r="A465" s="5" t="s">
         <v>464</v>
       </c>
       <c r="B465">
@@ -9795,7 +9799,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="3" t="s">
+      <c r="A466" s="5" t="s">
         <v>465</v>
       </c>
       <c r="B466">
@@ -9812,7 +9816,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="3" t="s">
+      <c r="A467" s="5" t="s">
         <v>466</v>
       </c>
       <c r="B467">
@@ -9829,7 +9833,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="3" t="s">
+      <c r="A468" s="5" t="s">
         <v>467</v>
       </c>
       <c r="B468">
@@ -9846,7 +9850,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="3" t="s">
+      <c r="A469" s="5" t="s">
         <v>468</v>
       </c>
       <c r="B469">
@@ -9863,7 +9867,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="3" t="s">
+      <c r="A470" s="5" t="s">
         <v>469</v>
       </c>
       <c r="B470">
@@ -9880,7 +9884,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="3" t="s">
+      <c r="A471" s="5" t="s">
         <v>470</v>
       </c>
       <c r="B471">
@@ -9897,7 +9901,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="3" t="s">
+      <c r="A472" s="5" t="s">
         <v>471</v>
       </c>
       <c r="B472">
@@ -9914,7 +9918,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="3" t="s">
+      <c r="A473" s="5" t="s">
         <v>472</v>
       </c>
       <c r="B473">
@@ -9931,7 +9935,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="3" t="s">
+      <c r="A474" s="5" t="s">
         <v>473</v>
       </c>
       <c r="B474">
@@ -9948,7 +9952,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="3" t="s">
+      <c r="A475" s="5" t="s">
         <v>474</v>
       </c>
       <c r="B475">
@@ -9965,7 +9969,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="3" t="s">
+      <c r="A476" s="5" t="s">
         <v>475</v>
       </c>
       <c r="B476">
@@ -9982,7 +9986,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="3" t="s">
+      <c r="A477" s="5" t="s">
         <v>476</v>
       </c>
       <c r="B477">
@@ -9999,7 +10003,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="3" t="s">
+      <c r="A478" s="5" t="s">
         <v>477</v>
       </c>
       <c r="B478">
@@ -10016,7 +10020,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="3" t="s">
+      <c r="A479" s="5" t="s">
         <v>478</v>
       </c>
       <c r="B479">
@@ -10033,7 +10037,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="3" t="s">
+      <c r="A480" s="5" t="s">
         <v>479</v>
       </c>
       <c r="B480">
@@ -10050,7 +10054,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="3" t="s">
+      <c r="A481" s="5" t="s">
         <v>480</v>
       </c>
       <c r="B481">
@@ -10067,7 +10071,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="3" t="s">
+      <c r="A482" s="5" t="s">
         <v>481</v>
       </c>
       <c r="B482">
@@ -10084,7 +10088,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="3" t="s">
+      <c r="A483" s="5" t="s">
         <v>482</v>
       </c>
       <c r="B483">
@@ -10101,7 +10105,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="3" t="s">
+      <c r="A484" s="5" t="s">
         <v>483</v>
       </c>
       <c r="B484">
@@ -10118,7 +10122,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="3" t="s">
+      <c r="A485" s="5" t="s">
         <v>484</v>
       </c>
       <c r="B485">
@@ -10135,7 +10139,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="3" t="s">
+      <c r="A486" s="5" t="s">
         <v>485</v>
       </c>
       <c r="B486">
@@ -10152,7 +10156,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="3" t="s">
+      <c r="A487" s="5" t="s">
         <v>486</v>
       </c>
       <c r="B487">
@@ -10169,7 +10173,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="3" t="s">
+      <c r="A488" s="5" t="s">
         <v>487</v>
       </c>
       <c r="B488">
@@ -10186,7 +10190,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="3" t="s">
+      <c r="A489" s="5" t="s">
         <v>488</v>
       </c>
       <c r="B489">
@@ -10203,7 +10207,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="3" t="s">
+      <c r="A490" s="5" t="s">
         <v>489</v>
       </c>
       <c r="B490">
@@ -10220,7 +10224,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="3" t="s">
+      <c r="A491" s="5" t="s">
         <v>490</v>
       </c>
       <c r="B491">
@@ -10237,7 +10241,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="3" t="s">
+      <c r="A492" s="5" t="s">
         <v>491</v>
       </c>
       <c r="B492">
@@ -10254,7 +10258,7 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="3" t="s">
+      <c r="A493" s="5" t="s">
         <v>492</v>
       </c>
       <c r="B493">
@@ -10271,7 +10275,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="3" t="s">
+      <c r="A494" s="5" t="s">
         <v>493</v>
       </c>
       <c r="B494">
@@ -10288,7 +10292,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="3" t="s">
+      <c r="A495" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B495">
@@ -10305,7 +10309,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="3" t="s">
+      <c r="A496" s="5" t="s">
         <v>495</v>
       </c>
       <c r="B496">
@@ -10322,7 +10326,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="3" t="s">
+      <c r="A497" s="5" t="s">
         <v>496</v>
       </c>
       <c r="B497">
@@ -10339,7 +10343,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="3" t="s">
+      <c r="A498" s="5" t="s">
         <v>497</v>
       </c>
       <c r="B498">
@@ -10356,7 +10360,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="3" t="s">
+      <c r="A499" s="5" t="s">
         <v>498</v>
       </c>
       <c r="B499">
@@ -10373,7 +10377,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="3" t="s">
+      <c r="A500" s="5" t="s">
         <v>499</v>
       </c>
       <c r="B500">
@@ -10390,7 +10394,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="3" t="s">
+      <c r="A501" s="5" t="s">
         <v>500</v>
       </c>
       <c r="B501">
@@ -10407,7 +10411,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="3" t="s">
+      <c r="A502" s="5" t="s">
         <v>501</v>
       </c>
       <c r="B502">
@@ -10424,7 +10428,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="3" t="s">
+      <c r="A503" s="5" t="s">
         <v>502</v>
       </c>
       <c r="B503">
@@ -10441,7 +10445,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="3" t="s">
+      <c r="A504" s="5" t="s">
         <v>503</v>
       </c>
       <c r="B504">
@@ -10458,7 +10462,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="3" t="s">
+      <c r="A505" s="5" t="s">
         <v>504</v>
       </c>
       <c r="B505">
@@ -10475,7 +10479,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="3" t="s">
+      <c r="A506" s="5" t="s">
         <v>505</v>
       </c>
       <c r="B506">
@@ -10492,7 +10496,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="3" t="s">
+      <c r="A507" s="5" t="s">
         <v>506</v>
       </c>
       <c r="B507">
@@ -10509,7 +10513,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="3" t="s">
+      <c r="A508" s="5" t="s">
         <v>507</v>
       </c>
       <c r="B508">
@@ -10526,7 +10530,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="3" t="s">
+      <c r="A509" s="5" t="s">
         <v>508</v>
       </c>
       <c r="B509">
@@ -10543,7 +10547,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="3" t="s">
+      <c r="A510" s="5" t="s">
         <v>509</v>
       </c>
       <c r="B510">
@@ -10560,7 +10564,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="3" t="s">
+      <c r="A511" s="5" t="s">
         <v>510</v>
       </c>
       <c r="B511">
@@ -10577,7 +10581,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="3" t="s">
+      <c r="A512" s="5" t="s">
         <v>511</v>
       </c>
       <c r="B512">
@@ -10594,7 +10598,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="3" t="s">
+      <c r="A513" s="5" t="s">
         <v>512</v>
       </c>
       <c r="B513">
@@ -10611,7 +10615,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="3" t="s">
+      <c r="A514" s="5" t="s">
         <v>513</v>
       </c>
       <c r="B514">
@@ -10628,7 +10632,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="3" t="s">
+      <c r="A515" s="5" t="s">
         <v>514</v>
       </c>
       <c r="B515">
@@ -10645,7 +10649,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="3" t="s">
+      <c r="A516" s="5" t="s">
         <v>515</v>
       </c>
       <c r="B516">
@@ -10662,7 +10666,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="3" t="s">
+      <c r="A517" s="5" t="s">
         <v>516</v>
       </c>
       <c r="B517">
@@ -10679,7 +10683,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="3" t="s">
+      <c r="A518" s="5" t="s">
         <v>517</v>
       </c>
       <c r="B518">
@@ -10696,7 +10700,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="3" t="s">
+      <c r="A519" s="5" t="s">
         <v>518</v>
       </c>
       <c r="B519">
@@ -10713,7 +10717,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="3" t="s">
+      <c r="A520" s="5" t="s">
         <v>519</v>
       </c>
       <c r="B520">
@@ -10730,7 +10734,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="3" t="s">
+      <c r="A521" s="5" t="s">
         <v>520</v>
       </c>
       <c r="B521">
@@ -10747,7 +10751,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="3" t="s">
+      <c r="A522" s="5" t="s">
         <v>521</v>
       </c>
       <c r="B522">
@@ -10764,7 +10768,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="3" t="s">
+      <c r="A523" s="5" t="s">
         <v>522</v>
       </c>
       <c r="B523">
@@ -10781,7 +10785,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="3" t="s">
+      <c r="A524" s="5" t="s">
         <v>523</v>
       </c>
       <c r="B524">
@@ -10798,7 +10802,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="3" t="s">
+      <c r="A525" s="5" t="s">
         <v>524</v>
       </c>
       <c r="B525">
@@ -10815,7 +10819,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="3" t="s">
+      <c r="A526" s="5" t="s">
         <v>525</v>
       </c>
       <c r="B526">
@@ -10832,7 +10836,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="3" t="s">
+      <c r="A527" s="5" t="s">
         <v>526</v>
       </c>
       <c r="B527">
@@ -10849,7 +10853,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="3" t="s">
+      <c r="A528" s="5" t="s">
         <v>527</v>
       </c>
       <c r="B528">
@@ -10866,7 +10870,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="3" t="s">
+      <c r="A529" s="5" t="s">
         <v>528</v>
       </c>
       <c r="B529">
@@ -10883,7 +10887,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="3" t="s">
+      <c r="A530" s="5" t="s">
         <v>529</v>
       </c>
       <c r="B530">
@@ -10900,7 +10904,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="3" t="s">
+      <c r="A531" s="5" t="s">
         <v>530</v>
       </c>
       <c r="B531">
@@ -10917,7 +10921,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="3" t="s">
+      <c r="A532" s="5" t="s">
         <v>531</v>
       </c>
       <c r="B532">
@@ -10934,7 +10938,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="3" t="s">
+      <c r="A533" s="5" t="s">
         <v>532</v>
       </c>
       <c r="B533">
@@ -10951,7 +10955,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="3" t="s">
+      <c r="A534" s="5" t="s">
         <v>533</v>
       </c>
       <c r="B534">
@@ -10968,7 +10972,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="3" t="s">
+      <c r="A535" s="5" t="s">
         <v>534</v>
       </c>
       <c r="B535">
@@ -10985,7 +10989,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="3" t="s">
+      <c r="A536" s="5" t="s">
         <v>535</v>
       </c>
       <c r="B536">
@@ -11002,7 +11006,7 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="3" t="s">
+      <c r="A537" s="5" t="s">
         <v>536</v>
       </c>
       <c r="B537">
@@ -11019,7 +11023,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="3" t="s">
+      <c r="A538" s="5" t="s">
         <v>537</v>
       </c>
       <c r="B538">
@@ -11036,7 +11040,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="3" t="s">
+      <c r="A539" s="5" t="s">
         <v>538</v>
       </c>
       <c r="B539">
@@ -11053,7 +11057,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="3" t="s">
+      <c r="A540" s="5" t="s">
         <v>539</v>
       </c>
       <c r="B540">
@@ -11070,7 +11074,7 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="3" t="s">
+      <c r="A541" s="5" t="s">
         <v>540</v>
       </c>
       <c r="B541">
@@ -11087,7 +11091,7 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="3" t="s">
+      <c r="A542" s="5" t="s">
         <v>541</v>
       </c>
       <c r="B542">
@@ -11104,7 +11108,7 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="3" t="s">
+      <c r="A543" s="5" t="s">
         <v>542</v>
       </c>
       <c r="B543">
@@ -11121,7 +11125,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="3" t="s">
+      <c r="A544" s="5" t="s">
         <v>543</v>
       </c>
       <c r="B544">
@@ -11138,7 +11142,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="3" t="s">
+      <c r="A545" s="5" t="s">
         <v>544</v>
       </c>
       <c r="B545">
@@ -11155,7 +11159,7 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="3" t="s">
+      <c r="A546" s="5" t="s">
         <v>545</v>
       </c>
       <c r="B546">
@@ -11172,7 +11176,7 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="3" t="s">
+      <c r="A547" s="5" t="s">
         <v>546</v>
       </c>
       <c r="B547">
@@ -11189,7 +11193,7 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="3" t="s">
+      <c r="A548" s="5" t="s">
         <v>547</v>
       </c>
       <c r="B548">
@@ -11206,7 +11210,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="3" t="s">
+      <c r="A549" s="5" t="s">
         <v>548</v>
       </c>
       <c r="B549">
@@ -11223,7 +11227,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="3" t="s">
+      <c r="A550" s="5" t="s">
         <v>549</v>
       </c>
       <c r="B550">
@@ -11240,7 +11244,7 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="3" t="s">
+      <c r="A551" s="5" t="s">
         <v>550</v>
       </c>
       <c r="B551">
@@ -11257,7 +11261,7 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="3" t="s">
+      <c r="A552" s="5" t="s">
         <v>551</v>
       </c>
       <c r="B552">
@@ -11274,7 +11278,7 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="3" t="s">
+      <c r="A553" s="5" t="s">
         <v>552</v>
       </c>
       <c r="B553">
@@ -11291,7 +11295,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="3" t="s">
+      <c r="A554" s="5" t="s">
         <v>553</v>
       </c>
       <c r="B554">
@@ -11308,7 +11312,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="3" t="s">
+      <c r="A555" s="5" t="s">
         <v>554</v>
       </c>
       <c r="B555">
@@ -11325,7 +11329,7 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="3" t="s">
+      <c r="A556" s="5" t="s">
         <v>555</v>
       </c>
       <c r="B556">
@@ -11342,7 +11346,7 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="3" t="s">
+      <c r="A557" s="5" t="s">
         <v>556</v>
       </c>
       <c r="B557">
@@ -11359,7 +11363,7 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="3" t="s">
+      <c r="A558" s="5" t="s">
         <v>557</v>
       </c>
       <c r="B558">
@@ -11376,7 +11380,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="3" t="s">
+      <c r="A559" s="5" t="s">
         <v>558</v>
       </c>
       <c r="B559">
@@ -11393,7 +11397,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="3" t="s">
+      <c r="A560" s="5" t="s">
         <v>559</v>
       </c>
       <c r="B560">
@@ -11410,7 +11414,7 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="3" t="s">
+      <c r="A561" s="5" t="s">
         <v>560</v>
       </c>
       <c r="B561">
@@ -11427,7 +11431,7 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="3" t="s">
+      <c r="A562" s="5" t="s">
         <v>561</v>
       </c>
       <c r="B562">
@@ -11444,7 +11448,7 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="3" t="s">
+      <c r="A563" s="5" t="s">
         <v>562</v>
       </c>
       <c r="B563">
@@ -11461,7 +11465,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="3" t="s">
+      <c r="A564" s="5" t="s">
         <v>563</v>
       </c>
       <c r="B564">
@@ -11478,7 +11482,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="3" t="s">
+      <c r="A565" s="5" t="s">
         <v>564</v>
       </c>
       <c r="B565">
@@ -11495,7 +11499,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="3" t="s">
+      <c r="A566" s="5" t="s">
         <v>565</v>
       </c>
       <c r="B566">
@@ -11512,7 +11516,7 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="3" t="s">
+      <c r="A567" s="5" t="s">
         <v>566</v>
       </c>
       <c r="B567">
@@ -11529,7 +11533,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="3" t="s">
+      <c r="A568" s="5" t="s">
         <v>567</v>
       </c>
       <c r="B568">
@@ -11546,7 +11550,7 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="3" t="s">
+      <c r="A569" s="5" t="s">
         <v>568</v>
       </c>
       <c r="B569">
@@ -11563,7 +11567,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="3" t="s">
+      <c r="A570" s="5" t="s">
         <v>569</v>
       </c>
       <c r="B570">
@@ -11580,7 +11584,7 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="3" t="s">
+      <c r="A571" s="5" t="s">
         <v>570</v>
       </c>
       <c r="B571">
@@ -11597,7 +11601,7 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="3" t="s">
+      <c r="A572" s="5" t="s">
         <v>571</v>
       </c>
       <c r="B572">
@@ -11614,7 +11618,7 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="3" t="s">
+      <c r="A573" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B573">
@@ -11631,7 +11635,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="3" t="s">
+      <c r="A574" s="5" t="s">
         <v>573</v>
       </c>
       <c r="B574">
@@ -11648,7 +11652,7 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="3" t="s">
+      <c r="A575" s="5" t="s">
         <v>574</v>
       </c>
       <c r="B575">
@@ -11665,7 +11669,7 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="3" t="s">
+      <c r="A576" s="5" t="s">
         <v>575</v>
       </c>
       <c r="B576">
@@ -11682,7 +11686,7 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="3" t="s">
+      <c r="A577" s="5" t="s">
         <v>576</v>
       </c>
       <c r="B577">
@@ -11699,7 +11703,7 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="3" t="s">
+      <c r="A578" s="5" t="s">
         <v>577</v>
       </c>
       <c r="B578">
@@ -11716,7 +11720,7 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="3" t="s">
+      <c r="A579" s="5" t="s">
         <v>578</v>
       </c>
       <c r="B579">
@@ -11733,7 +11737,7 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="3" t="s">
+      <c r="A580" s="5" t="s">
         <v>579</v>
       </c>
       <c r="B580">
@@ -11750,7 +11754,7 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="3" t="s">
+      <c r="A581" s="5" t="s">
         <v>580</v>
       </c>
       <c r="B581">
@@ -11767,7 +11771,7 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="3" t="s">
+      <c r="A582" s="5" t="s">
         <v>581</v>
       </c>
       <c r="B582">
@@ -11784,7 +11788,7 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="3" t="s">
+      <c r="A583" s="5" t="s">
         <v>582</v>
       </c>
       <c r="B583">
@@ -11801,7 +11805,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="3" t="s">
+      <c r="A584" s="5" t="s">
         <v>583</v>
       </c>
       <c r="B584">
@@ -11818,7 +11822,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="3" t="s">
+      <c r="A585" s="5" t="s">
         <v>584</v>
       </c>
       <c r="B585">
@@ -11835,7 +11839,7 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="3" t="s">
+      <c r="A586" s="5" t="s">
         <v>585</v>
       </c>
       <c r="B586">
@@ -11852,7 +11856,7 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="3" t="s">
+      <c r="A587" s="5" t="s">
         <v>586</v>
       </c>
       <c r="B587">
@@ -11869,7 +11873,7 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="3" t="s">
+      <c r="A588" s="5" t="s">
         <v>587</v>
       </c>
       <c r="B588">
@@ -11886,7 +11890,7 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="3" t="s">
+      <c r="A589" s="5" t="s">
         <v>588</v>
       </c>
       <c r="B589">
@@ -11903,7 +11907,7 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="3" t="s">
+      <c r="A590" s="5" t="s">
         <v>589</v>
       </c>
       <c r="B590">
@@ -11920,7 +11924,7 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="3" t="s">
+      <c r="A591" s="5" t="s">
         <v>590</v>
       </c>
       <c r="B591">
@@ -11937,7 +11941,7 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="3" t="s">
+      <c r="A592" s="5" t="s">
         <v>591</v>
       </c>
       <c r="B592">
@@ -11954,7 +11958,7 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="3" t="s">
+      <c r="A593" s="5" t="s">
         <v>592</v>
       </c>
       <c r="B593">
@@ -11971,7 +11975,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="3" t="s">
+      <c r="A594" s="5" t="s">
         <v>593</v>
       </c>
       <c r="B594">
@@ -11988,7 +11992,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="3" t="s">
+      <c r="A595" s="5" t="s">
         <v>594</v>
       </c>
       <c r="B595">
@@ -12005,7 +12009,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="3" t="s">
+      <c r="A596" s="5" t="s">
         <v>595</v>
       </c>
       <c r="B596">
@@ -12022,7 +12026,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="3" t="s">
+      <c r="A597" s="5" t="s">
         <v>596</v>
       </c>
       <c r="B597">
@@ -12039,7 +12043,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="3" t="s">
+      <c r="A598" s="5" t="s">
         <v>597</v>
       </c>
       <c r="B598">
@@ -12056,7 +12060,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="3" t="s">
+      <c r="A599" s="5" t="s">
         <v>598</v>
       </c>
       <c r="B599">
@@ -12073,7 +12077,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="3" t="s">
+      <c r="A600" s="5" t="s">
         <v>599</v>
       </c>
       <c r="B600">
@@ -12090,7 +12094,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="3" t="s">
+      <c r="A601" s="5" t="s">
         <v>600</v>
       </c>
       <c r="B601">
